--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Valdepenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4A4275-44DD-425F-93BE-F41E37D2A047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABA2DE-D819-48D5-930C-826E7B1BA6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>Movil</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Imagen</t>
+  </si>
+  <si>
+    <t>52_7751613269</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -47,141 +50,100 @@
 💡¿Te interesa obtener más información de este lote?</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Downloads\valdepenas.jpg</t>
-  </si>
-  <si>
-    <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
-🎯Información general:
-* 🏡 Superficie: 105 m²
-* 📏Frente: 7m.
-* 📏Fondo:  15m.
-* 📍Tulancingo de Bravo, Hidalgo
-⛳Amenidades:
-* 🌲Área Verde
-* 🛝Juegos Infantiles
-* 🐾Zona de mascotas
-* 🏃🏻Pista de jogging
-* 🔐Seguridad
-💰 $525,000 MXN
-💡¿Te interesa obtener más información de este lote?</t>
-  </si>
-  <si>
-    <t>52_7721122615</t>
-  </si>
-  <si>
-    <t>52_7732029733</t>
-  </si>
-  <si>
-    <t>52_7751315615</t>
-  </si>
-  <si>
-    <t>52_7751315617</t>
-  </si>
-  <si>
-    <t>52_7751380940</t>
-  </si>
-  <si>
-    <t>52_7751443589</t>
-  </si>
-  <si>
-    <t>52_7751462933</t>
-  </si>
-  <si>
-    <t>52_7751481060</t>
-  </si>
-  <si>
-    <t>52_7751496651</t>
-  </si>
-  <si>
-    <t>52_7751502452</t>
-  </si>
-  <si>
-    <t>52_7751587673</t>
-  </si>
-  <si>
-    <t>52_7751613269</t>
-  </si>
-  <si>
-    <t>52_7751615269</t>
-  </si>
-  <si>
-    <t>52_7751652531</t>
-  </si>
-  <si>
-    <t>52_7751830996</t>
-  </si>
-  <si>
-    <t>52_7751893539</t>
-  </si>
-  <si>
-    <t>52_7752054732</t>
-  </si>
-  <si>
-    <t>52_7752247416</t>
-  </si>
-  <si>
-    <t>52_7752603058</t>
-  </si>
-  <si>
-    <t>52_7752679019</t>
-  </si>
-  <si>
-    <t>52_7752752570</t>
-  </si>
-  <si>
-    <t>52_7757070508</t>
-  </si>
-  <si>
-    <t>52_7757070609</t>
-  </si>
-  <si>
-    <t>52_7757070610</t>
-  </si>
-  <si>
-    <t>52_7757505672</t>
-  </si>
-  <si>
-    <t>52_7757576554</t>
-  </si>
-  <si>
-    <t>52_7757848955</t>
-  </si>
-  <si>
-    <t>52_7757849427</t>
-  </si>
-  <si>
-    <t>52_2216520361</t>
-  </si>
-  <si>
-    <t>52_4425991770</t>
-  </si>
-  <si>
-    <t>52_5539406690</t>
-  </si>
-  <si>
-    <t>52_5581702342</t>
-  </si>
-  <si>
-    <t>52_5581788454</t>
-  </si>
-  <si>
-    <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
-🎯Información general:
-* 🏡 Superficie: 105 m²
-* 📏Frente: 7m.
-* 📏Fondo:  15m.
-* 📍Tulancingo de Bravo, Hidalgo
-⛳Amenidades:
-* 🌲Área Verde
-* 🛝Juegos Infantiles
-* 🐾Zona de mascotas
-* 🏃🏻Pista de jogging
-* 🔐Seguridad
-💰 $525,000 MXN
-💡¿Le interesa obtener más información de este lote?</t>
-  </si>
-  <si>
     <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\tilo.jpg</t>
+  </si>
+  <si>
+    <t>52_7751311426</t>
+  </si>
+  <si>
+    <t>52_7751312467</t>
+  </si>
+  <si>
+    <t>52_7751314582</t>
+  </si>
+  <si>
+    <t>52_7751314857</t>
+  </si>
+  <si>
+    <t>52_7751316973</t>
+  </si>
+  <si>
+    <t>52_7751318765</t>
+  </si>
+  <si>
+    <t>52_7751322455</t>
+  </si>
+  <si>
+    <t>52_7751325910</t>
+  </si>
+  <si>
+    <t>52_7751331471</t>
+  </si>
+  <si>
+    <t>52_7751336155</t>
+  </si>
+  <si>
+    <t>52_7751348702</t>
+  </si>
+  <si>
+    <t>52_7751353263</t>
+  </si>
+  <si>
+    <t>52_7751354132</t>
+  </si>
+  <si>
+    <t>52_7751354873</t>
+  </si>
+  <si>
+    <t>52_7751355968</t>
+  </si>
+  <si>
+    <t>52_7751367806</t>
+  </si>
+  <si>
+    <t>52_7751376015</t>
+  </si>
+  <si>
+    <t>52_7751376633</t>
+  </si>
+  <si>
+    <t>52_7751382572</t>
+  </si>
+  <si>
+    <t>52_7751382752</t>
+  </si>
+  <si>
+    <t>52_7751382788</t>
+  </si>
+  <si>
+    <t>52_7751383590</t>
+  </si>
+  <si>
+    <t>52_7751394778</t>
+  </si>
+  <si>
+    <t>52_7751411734</t>
+  </si>
+  <si>
+    <t>52_7751412606</t>
+  </si>
+  <si>
+    <t>52_7751413285</t>
+  </si>
+  <si>
+    <t>52_7751417549</t>
+  </si>
+  <si>
+    <t>52_7751420077</t>
+  </si>
+  <si>
+    <t>52_7751447212</t>
+  </si>
+  <si>
+    <t>52_7751469121</t>
+  </si>
+  <si>
+    <t>52_7751490541</t>
   </si>
 </sst>
 </file>
@@ -210,23 +172,27 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,7 +224,9 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -278,26 +246,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,31 +258,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,16 +593,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -654,378 +610,366 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Valdepenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABA2DE-D819-48D5-930C-826E7B1BA6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C807846-E742-4086-A4B2-732A6D2F5C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="65">
   <si>
     <t>Movil</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>52_7751613269</t>
+    <t>52_7721122615</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -53,104 +53,188 @@
     <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
   <si>
-    <t>52_7751311426</t>
-  </si>
-  <si>
-    <t>52_7751312467</t>
-  </si>
-  <si>
-    <t>52_7751314582</t>
-  </si>
-  <si>
-    <t>52_7751314857</t>
-  </si>
-  <si>
-    <t>52_7751316973</t>
-  </si>
-  <si>
-    <t>52_7751318765</t>
-  </si>
-  <si>
-    <t>52_7751322455</t>
-  </si>
-  <si>
-    <t>52_7751325910</t>
-  </si>
-  <si>
-    <t>52_7751331471</t>
-  </si>
-  <si>
-    <t>52_7751336155</t>
-  </si>
-  <si>
-    <t>52_7751348702</t>
-  </si>
-  <si>
-    <t>52_7751353263</t>
-  </si>
-  <si>
-    <t>52_7751354132</t>
-  </si>
-  <si>
-    <t>52_7751354873</t>
-  </si>
-  <si>
-    <t>52_7751355968</t>
-  </si>
-  <si>
-    <t>52_7751367806</t>
-  </si>
-  <si>
-    <t>52_7751376015</t>
-  </si>
-  <si>
-    <t>52_7751376633</t>
-  </si>
-  <si>
-    <t>52_7751382572</t>
-  </si>
-  <si>
-    <t>52_7751382752</t>
-  </si>
-  <si>
-    <t>52_7751382788</t>
-  </si>
-  <si>
-    <t>52_7751383590</t>
-  </si>
-  <si>
-    <t>52_7751394778</t>
-  </si>
-  <si>
-    <t>52_7751411734</t>
-  </si>
-  <si>
-    <t>52_7751412606</t>
-  </si>
-  <si>
-    <t>52_7751413285</t>
-  </si>
-  <si>
-    <t>52_7751417549</t>
-  </si>
-  <si>
-    <t>52_7751420077</t>
-  </si>
-  <si>
-    <t>52_7751447212</t>
-  </si>
-  <si>
-    <t>52_7751469121</t>
-  </si>
-  <si>
-    <t>52_7751490541</t>
+    <t>52_7751535249</t>
+  </si>
+  <si>
+    <t>52_7751571982</t>
+  </si>
+  <si>
+    <t>52_7751595528</t>
+  </si>
+  <si>
+    <t>52_7751605872</t>
+  </si>
+  <si>
+    <t>52_7751607144</t>
+  </si>
+  <si>
+    <t>52_7751612390</t>
+  </si>
+  <si>
+    <t>52_7751616224</t>
+  </si>
+  <si>
+    <t>52_7751633580</t>
+  </si>
+  <si>
+    <t>52_7751868800</t>
+  </si>
+  <si>
+    <t>52_7751874965</t>
+  </si>
+  <si>
+    <t>52_7751889137</t>
+  </si>
+  <si>
+    <t>52_7751904377</t>
+  </si>
+  <si>
+    <t>52_7751930867</t>
+  </si>
+  <si>
+    <t>52_7752168168</t>
+  </si>
+  <si>
+    <t>52_7752279847</t>
+  </si>
+  <si>
+    <t>52_7752356827</t>
+  </si>
+  <si>
+    <t>52_7752360224</t>
+  </si>
+  <si>
+    <t>52_7752363644</t>
+  </si>
+  <si>
+    <t>52_7752365423</t>
+  </si>
+  <si>
+    <t>52_7752524158</t>
+  </si>
+  <si>
+    <t>52_7752547802</t>
+  </si>
+  <si>
+    <t>52_7752551297</t>
+  </si>
+  <si>
+    <t>52_7752602082</t>
+  </si>
+  <si>
+    <t>52_7753619223</t>
+  </si>
+  <si>
+    <t>52_7757076483</t>
+  </si>
+  <si>
+    <t>52_7757573754</t>
+  </si>
+  <si>
+    <t>52_7757580252</t>
+  </si>
+  <si>
+    <t>52_7757588186</t>
+  </si>
+  <si>
+    <t>52_7757843413</t>
+  </si>
+  <si>
+    <t>52_7751119118</t>
+  </si>
+  <si>
+    <t>52_7752329514</t>
+  </si>
+  <si>
+    <t>52_5569037579</t>
+  </si>
+  <si>
+    <t>52_7752810182</t>
+  </si>
+  <si>
+    <t>52_7751101239</t>
+  </si>
+  <si>
+    <t>52_7751339146</t>
+  </si>
+  <si>
+    <t>52_7751679977</t>
+  </si>
+  <si>
+    <t>52_5512453718</t>
+  </si>
+  <si>
+    <t>52_7713435540</t>
+  </si>
+  <si>
+    <t>52_7717931881</t>
+  </si>
+  <si>
+    <t>52_7751117865</t>
+  </si>
+  <si>
+    <t>52_7751146252</t>
+  </si>
+  <si>
+    <t>52_7751176879</t>
+  </si>
+  <si>
+    <t>52_7751177865</t>
+  </si>
+  <si>
+    <t>52_7751208291</t>
+  </si>
+  <si>
+    <t>52_7751212928</t>
+  </si>
+  <si>
+    <t>52_7751214643</t>
+  </si>
+  <si>
+    <t>52_7751230905</t>
+  </si>
+  <si>
+    <t>52_7751234678</t>
+  </si>
+  <si>
+    <t>52_7751241837</t>
+  </si>
+  <si>
+    <t>52_7751247837</t>
+  </si>
+  <si>
+    <t>52_7751254294</t>
+  </si>
+  <si>
+    <t>52_7751280379</t>
+  </si>
+  <si>
+    <t>52_7751285749</t>
+  </si>
+  <si>
+    <t>52_7751336963</t>
+  </si>
+  <si>
+    <t>52_7751338973</t>
+  </si>
+  <si>
+    <t>52_7751350568</t>
+  </si>
+  <si>
+    <t>52_7751351243</t>
+  </si>
+  <si>
+    <t>52_7751385570</t>
+  </si>
+  <si>
+    <t>52_7751414104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +252,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -250,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,16 +336,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,9 +349,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,379 +665,707 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Valdepenas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A167CA6-B235-4254-B43F-A8A881D3C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Movil</t>
   </si>
@@ -23,9 +29,6 @@
   </si>
   <si>
     <t>Imagen</t>
-  </si>
-  <si>
-    <t>52_7751312984</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -47,20 +50,100 @@
     <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
   <si>
-    <t>52_7751313588</t>
-  </si>
-  <si>
-    <t>52_7751314642</t>
-  </si>
-  <si>
-    <t>52_7751315690</t>
+    <t>52_7752369639</t>
+  </si>
+  <si>
+    <t>52_7752419973</t>
+  </si>
+  <si>
+    <t>52_7752532572</t>
+  </si>
+  <si>
+    <t>52_7752535809</t>
+  </si>
+  <si>
+    <t>52_7752561236</t>
+  </si>
+  <si>
+    <t>52_7752577636</t>
+  </si>
+  <si>
+    <t>52_7752582822</t>
+  </si>
+  <si>
+    <t>52_7752813138</t>
+  </si>
+  <si>
+    <t>52_7753715579</t>
+  </si>
+  <si>
+    <t>52_7755933813</t>
+  </si>
+  <si>
+    <t>52_7757068861</t>
+  </si>
+  <si>
+    <t>52_7757073077</t>
+  </si>
+  <si>
+    <t>52_7757513877</t>
+  </si>
+  <si>
+    <t>52_7757565338</t>
+  </si>
+  <si>
+    <t>52_7757566147</t>
+  </si>
+  <si>
+    <t>52_7757571116</t>
+  </si>
+  <si>
+    <t>52_7757571340</t>
+  </si>
+  <si>
+    <t>52_7757588837</t>
+  </si>
+  <si>
+    <t>52_7757598636</t>
+  </si>
+  <si>
+    <t>52_7757600152</t>
+  </si>
+  <si>
+    <t>52_7757603721</t>
+  </si>
+  <si>
+    <t>52_7757606493</t>
+  </si>
+  <si>
+    <t>52_7757710585</t>
+  </si>
+  <si>
+    <t>52_7757717898</t>
+  </si>
+  <si>
+    <t>52_7757841312</t>
+  </si>
+  <si>
+    <t>52_7757845248</t>
+  </si>
+  <si>
+    <t>52_7757846489</t>
+  </si>
+  <si>
+    <t>52_8126094431</t>
+  </si>
+  <si>
+    <t>52_7751555490</t>
+  </si>
+  <si>
+    <t>52_7751564664</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,47 +223,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -191,10 +268,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -232,71 +309,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -324,7 +401,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -347,11 +424,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -360,13 +437,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -376,7 +453,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -385,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,7 +471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -402,10 +479,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -470,22 +547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="77.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="57.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,274 +575,314 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="40" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="41" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="42" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="43" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="44" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="45" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="46" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="47" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="48" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    </row>
+    <row r="50" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Valdepenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A167CA6-B235-4254-B43F-A8A881D3C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8A539-A9A4-4CC2-8A54-3A135C297F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>Movil</t>
   </si>
@@ -47,9 +47,6 @@
 💡¿Te interesa obtener más información de este lote?</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\tilo.jpg</t>
-  </si>
-  <si>
     <t>52_7752369639</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>52_7751564664</t>
+  </si>
+  <si>
+    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\tilo.jpg</t>
+  </si>
+  <si>
+    <t>Creativo\OneDrive\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
 </sst>
 </file>
@@ -553,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,257 +580,335 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="B31" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Valdepenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8A539-A9A4-4CC2-8A54-3A135C297F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4EAFD-B25D-4DE2-8CB6-A3F5C9805349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Movil</t>
   </si>
@@ -137,10 +137,7 @@
     <t>52_7751564664</t>
   </si>
   <si>
-    <t>C:\Users\4to CREATIVO\Desktop\WhatsAutoA\Images\tilo.jpg</t>
-  </si>
-  <si>
-    <t>Creativo\OneDrive\Desktop\WhatsAutoA\Images\tilo.jpg</t>
+    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
 </sst>
 </file>
@@ -556,8 +553,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Valdepenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4EAFD-B25D-4DE2-8CB6-A3F5C9805349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17531C3F-253B-4F50-9D15-3E9C2208A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>

--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\WhatsAutoA\Valdepenas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17531C3F-253B-4F50-9D15-3E9C2208A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>Movil</t>
   </si>
@@ -29,6 +23,9 @@
   </si>
   <si>
     <t>Imagen</t>
+  </si>
+  <si>
+    <t>52_7752419973</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -47,10 +44,7 @@
 💡¿Te interesa obtener más información de este lote?</t>
   </si>
   <si>
-    <t>52_7752369639</t>
-  </si>
-  <si>
-    <t>52_7752419973</t>
+    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
   <si>
     <t>52_7752532572</t>
@@ -135,16 +129,14 @@
   </si>
   <si>
     <t>52_7751564664</t>
-  </si>
-  <si>
-    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,12 +154,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -223,41 +209,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -268,10 +260,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -309,71 +301,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,7 +393,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -424,11 +416,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -437,13 +429,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -453,7 +445,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -462,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -471,7 +463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -479,10 +471,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -547,24 +539,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="77.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="64.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,392 +565,419 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="268.5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="268.5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="268.5">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="268.5" customFormat="1" s="1">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="B30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Valdepenas/listaContactos.xlsx
+++ b/Valdepenas/listaContactos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Movil</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>52_7752419973</t>
+    <t>52_7752532572</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -47,9 +47,6 @@
     <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\tilo.jpg</t>
   </si>
   <si>
-    <t>52_7752532572</t>
-  </si>
-  <si>
     <t>52_7752535809</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
     <t>52_7755933813</t>
   </si>
   <si>
-    <t>52_7757068861</t>
-  </si>
-  <si>
-    <t>52_7757073077</t>
-  </si>
-  <si>
-    <t>52_7757513877</t>
-  </si>
-  <si>
     <t>52_7757565338</t>
   </si>
   <si>
@@ -95,40 +83,10 @@
     <t>52_7757588837</t>
   </si>
   <si>
-    <t>52_7757598636</t>
-  </si>
-  <si>
-    <t>52_7757600152</t>
-  </si>
-  <si>
     <t>52_7757603721</t>
   </si>
   <si>
-    <t>52_7757606493</t>
-  </si>
-  <si>
-    <t>52_7757710585</t>
-  </si>
-  <si>
-    <t>52_7757717898</t>
-  </si>
-  <si>
-    <t>52_7757841312</t>
-  </si>
-  <si>
-    <t>52_7757845248</t>
-  </si>
-  <si>
-    <t>52_7757846489</t>
-  </si>
-  <si>
     <t>52_8126094431</t>
-  </si>
-  <si>
-    <t>52_7751555490</t>
-  </si>
-  <si>
-    <t>52_7751564664</t>
   </si>
 </sst>
 </file>
@@ -136,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +112,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -232,8 +196,8 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -543,7 +507,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -587,14 +551,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="268.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="268.5" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -708,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="268.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -719,7 +683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="268.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -730,159 +694,75 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="268.5" customFormat="1" s="1">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="268.5" customFormat="1" s="1">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="268.5" customFormat="1" s="1">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="268.5" customFormat="1" s="1">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="2"/>
@@ -909,76 +789,6 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
